--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -101,16 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>金曜日までにGit作成</t>
-    <rPh sb="0" eb="3">
-      <t>キンヨウビ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>金曜日にゲーム基盤をGitに提出</t>
     <rPh sb="0" eb="3">
       <t>キンヨウビ</t>
@@ -125,6 +115,10 @@
   </si>
   <si>
     <t>next…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金曜日までにGit作成</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -598,21 +592,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,12 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -660,36 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,7 +968,7 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -985,293 +979,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="7" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="J3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="28"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="9"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="34"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="29"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="34"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="11"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="30"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
+      <c r="M5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="J7" s="7" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="J7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15"/>
+      <c r="M7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="9"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="34"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="21"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="9"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="34"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="11"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="9"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="34"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="11"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="E19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B20" s="9"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="34"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="11"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B11:C13"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
     <mergeCell ref="J7:K9"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:P8"/>
@@ -1288,6 +1269,19 @@
     <mergeCell ref="B7:C9"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B11:C13"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -118,7 +118,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>金曜日までにGit作成</t>
+    <t>金曜日までにGit作成金曜日までにGit作成</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -592,6 +592,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -600,90 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,7 +968,7 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M4" sqref="M4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -979,280 +979,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="J3" s="10" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="J3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="28"/>
       <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="18"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="34"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
+      <c r="M4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="J7" s="10" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="23"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="34"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="28"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="24"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B11:C13"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="J7:K9"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:P8"/>
@@ -1269,19 +1282,6 @@
     <mergeCell ref="B7:C9"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B11:C13"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
